--- a/lab5_aed/graficos.xlsx
+++ b/lab5_aed/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalo/studious-tribble/lab5_aed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3B9E7-C0B2-5B4E-8C50-39F696766037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C122-86FE-5141-8F1A-7C574B3C3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BE2661A5-D7D1-2549-B353-31E95E1316CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{BE2661A5-D7D1-2549-B353-31E95E1316CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>quick sort</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>OP_CNT/N</t>
   </si>
 </sst>
 </file>
@@ -88,12 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$16</c:f>
+              <c:f>Sheet1!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1258,7 +1268,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$16</c:f>
+              <c:f>Sheet1!$E$3:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1501,6 +1511,949 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Median</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2212108982560385E-2"/>
+                  <c:y val="-0.13136801541425819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.4691292214427395"/>
+                  <c:y val="-0.36571541274103742"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EB7-B240-96ED-333DF3470ECD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1747730272"/>
+        <c:axId val="1457023711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1747730272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457023711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1457023711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747730272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Median N log N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4780481985206316E-2"/>
+                  <c:y val="-0.23279520002418125"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.7674418604651159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.093922651933701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.445297504798464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.591259640102828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7518248175182478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1886792452830193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2868217054263571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.197930142302717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.195342820181112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99D4-7045-999E-D00199EE96FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1457019407"/>
+        <c:axId val="211012655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1457019407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211012655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211012655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457019407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1621,6 +2574,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2654,6 +3687,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3274,6 +5339,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83673092-2528-DA44-AAEC-AFCE671DBADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B42B45-2B54-1C49-8B19-5637266841E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3579,15 +5716,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82037F5-56D6-1241-8AF4-9FDC78224FD6}">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3596,8 +5733,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3605,226 +5747,331 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>43</v>
       </c>
       <c r="C3">
         <v>870</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>310</v>
       </c>
+      <c r="E3">
+        <f>D3/B3</f>
+        <v>7.2093023255813957</v>
+      </c>
       <c r="F3">
-        <f>E3/B3</f>
-        <v>7.2093023255813957</v>
+        <v>248</v>
+      </c>
+      <c r="G3">
+        <f>F3/B3</f>
+        <v>5.7674418604651159</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>22</v>
       </c>
+      <c r="E4">
+        <f>D4/B4</f>
+        <v>4.4000000000000004</v>
+      </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="0">E4/B4</f>
-        <v>4.4000000000000004</v>
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <f>F4/B4</f>
+        <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>35</v>
       </c>
       <c r="C5">
         <v>702</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>251</v>
       </c>
+      <c r="E5">
+        <f>D5/B5</f>
+        <v>7.1714285714285717</v>
+      </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>7.1714285714285717</v>
+        <v>207</v>
+      </c>
+      <c r="G5">
+        <f>F5/B5</f>
+        <v>5.9142857142857146</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>33</v>
       </c>
+      <c r="E6">
+        <f>D6/B6</f>
+        <v>4.125</v>
+      </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.125</v>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f>F6/B6</f>
+        <v>3.125</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>181</v>
       </c>
       <c r="C7">
         <v>15536</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>2061</v>
       </c>
+      <c r="E7">
+        <f>D7/B7</f>
+        <v>11.386740331491712</v>
+      </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>11.386740331491712</v>
+        <v>1827</v>
+      </c>
+      <c r="G7">
+        <f>F7/B7</f>
+        <v>10.093922651933701</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>521</v>
       </c>
       <c r="C8">
         <v>143118</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>6647</v>
       </c>
+      <c r="E8">
+        <f>D8/B8</f>
+        <v>12.758157389635317</v>
+      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>12.758157389635317</v>
+        <v>5963</v>
+      </c>
+      <c r="G8">
+        <f>F8/B8</f>
+        <v>11.445297504798464</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>389</v>
       </c>
       <c r="C9">
         <v>77572</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>5797</v>
       </c>
+      <c r="E9">
+        <f>D9/B9</f>
+        <v>14.902313624678664</v>
+      </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>14.902313624678664</v>
+        <v>5287</v>
+      </c>
+      <c r="G9">
+        <f>F9/B9</f>
+        <v>13.591259640102828</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>137</v>
       </c>
       <c r="C10">
         <v>10158</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>1281</v>
       </c>
+      <c r="E10">
+        <f>D10/B10</f>
+        <v>9.3503649635036492</v>
+      </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>9.3503649635036492</v>
+        <v>1199</v>
+      </c>
+      <c r="G10">
+        <f>F10/B10</f>
+        <v>8.7518248175182478</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>53</v>
       </c>
       <c r="C11">
         <v>1424</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>392</v>
       </c>
+      <c r="E11">
+        <f>D11/B11</f>
+        <v>7.3962264150943398</v>
+      </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>7.3962264150943398</v>
+        <v>328</v>
+      </c>
+      <c r="G11">
+        <f>F11/B11</f>
+        <v>6.1886792452830193</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>9</v>
       </c>
+      <c r="E12">
+        <f>D12/B12</f>
+        <v>3</v>
+      </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f>F12/B12</f>
+        <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>259</v>
       </c>
       <c r="C13">
         <v>32916</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>3047</v>
       </c>
+      <c r="E13">
+        <f>D13/B13</f>
+        <v>11.764478764478765</v>
+      </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>11.764478764478765</v>
+        <v>2701</v>
+      </c>
+      <c r="G13">
+        <f>F13/B13</f>
+        <v>10.428571428571429</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>129</v>
       </c>
       <c r="C14">
         <v>7960</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>1245</v>
       </c>
+      <c r="E14">
+        <f>D14/B14</f>
+        <v>9.6511627906976738</v>
+      </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>9.6511627906976738</v>
+        <v>1069</v>
+      </c>
+      <c r="G14">
+        <f>F14/B14</f>
+        <v>8.2868217054263571</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>773</v>
       </c>
       <c r="C15" s="1">
         <v>292672</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>10475</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="E15">
+        <f>D15/B15</f>
         <v>13.551099611901682</v>
       </c>
+      <c r="F15" s="1">
+        <v>9429</v>
+      </c>
+      <c r="G15">
+        <f>F15/B15</f>
+        <v>12.197930142302717</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>773</v>
       </c>
       <c r="C16" s="1">
         <v>291892</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <v>10469</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+      <c r="E16">
+        <f>D16/B16</f>
         <v>13.543337645536869</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9427</v>
+      </c>
+      <c r="G16">
+        <f>F16/B16</f>
+        <v>12.195342820181112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab5_aed/graficos.xlsx
+++ b/lab5_aed/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalo/studious-tribble/lab5_aed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411C122-86FE-5141-8F1A-7C574B3C3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BD2BE-0B4A-C24C-8B8A-E6FFADFE836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{BE2661A5-D7D1-2549-B353-31E95E1316CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BE2661A5-D7D1-2549-B353-31E95E1316CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,13 +97,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,46 +330,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>870</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>702</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15536</c:v>
+                  <c:v>14156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143118</c:v>
+                  <c:v>109762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77572</c:v>
+                  <c:v>61666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10158</c:v>
+                  <c:v>8672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1424</c:v>
+                  <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32916</c:v>
+                  <c:v>28906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7960</c:v>
+                  <c:v>6706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>292672</c:v>
+                  <c:v>260658</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291892</c:v>
+                  <c:v>261114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,46 +827,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>310</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2061</c:v>
+                  <c:v>1727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6647</c:v>
+                  <c:v>6096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5797</c:v>
+                  <c:v>4867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1281</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>392</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3047</c:v>
+                  <c:v>2601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1245</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10475</c:v>
+                  <c:v>10478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10469</c:v>
+                  <c:v>10451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,46 +1273,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7.2093023255813957</c:v>
+                  <c:v>7.3255813953488369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1714285714285717</c:v>
+                  <c:v>6.628571428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.125</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.386740331491712</c:v>
+                  <c:v>9.5414364640883971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.758157389635317</c:v>
+                  <c:v>11.700575815738963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.902313624678664</c:v>
+                  <c:v>12.511568123393316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3503649635036492</c:v>
+                  <c:v>9.3211678832116789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3962264150943398</c:v>
+                  <c:v>7.5849056603773581</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.764478764478765</c:v>
+                  <c:v>10.042471042471043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6511627906976738</c:v>
+                  <c:v>8.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.551099611901682</c:v>
+                  <c:v>13.554980595084087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.543337645536869</c:v>
+                  <c:v>13.520051746442432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,46 +1770,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>248</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1827</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5963</c:v>
+                  <c:v>7647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5287</c:v>
+                  <c:v>5524</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1199</c:v>
+                  <c:v>1663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2701</c:v>
+                  <c:v>3374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1069</c:v>
+                  <c:v>1493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9429</c:v>
+                  <c:v>12355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9427</c:v>
+                  <c:v>12460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,46 +2216,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.7674418604651159</c:v>
+                  <c:v>10.255813953488373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9142857142857146</c:v>
+                  <c:v>9.9142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.093922651933701</c:v>
+                  <c:v>12.69060773480663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.445297504798464</c:v>
+                  <c:v>14.677543186180422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.591259640102828</c:v>
+                  <c:v>14.20051413881748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7518248175182478</c:v>
+                  <c:v>12.138686131386862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1886792452830193</c:v>
+                  <c:v>11.018867924528301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.428571428571429</c:v>
+                  <c:v>13.027027027027026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2868217054263571</c:v>
+                  <c:v>11.573643410852712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.197930142302717</c:v>
+                  <c:v>15.983182406209574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.195342820181112</c:v>
+                  <c:v>16.119016817593792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5719,25 +5719,25 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5764,21 +5764,21 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>870</v>
+        <v>656</v>
       </c>
       <c r="D3" s="1">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E3">
-        <f>D3/B3</f>
-        <v>7.2093023255813957</v>
-      </c>
-      <c r="F3">
-        <v>248</v>
+        <f t="shared" ref="E3:E16" si="0">D3/B3</f>
+        <v>7.3255813953488369</v>
+      </c>
+      <c r="F3" s="1">
+        <v>441</v>
       </c>
       <c r="G3">
-        <f>F3/B3</f>
-        <v>5.7674418604651159</v>
+        <f t="shared" ref="G3:G16" si="1">F3/B3</f>
+        <v>10.255813953488373</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -5789,238 +5789,238 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <f>D4/B4</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>32</v>
       </c>
       <c r="G4">
-        <f>F4/B4</f>
-        <v>2.8</v>
+        <f t="shared" si="1"/>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>35</v>
       </c>
-      <c r="C5">
-        <v>702</v>
+      <c r="C5" s="1">
+        <v>558</v>
       </c>
       <c r="D5" s="1">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E5">
-        <f>D5/B5</f>
-        <v>7.1714285714285717</v>
-      </c>
-      <c r="F5">
-        <v>207</v>
+        <f t="shared" si="0"/>
+        <v>6.628571428571429</v>
+      </c>
+      <c r="F5" s="1">
+        <v>347</v>
       </c>
       <c r="G5">
-        <f>F5/B5</f>
-        <v>5.9142857142857146</v>
+        <f t="shared" si="1"/>
+        <v>9.9142857142857146</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>28</v>
+      <c r="C6" s="1">
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <f>D6/B6</f>
-        <v>4.125</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>3.875</v>
+      </c>
+      <c r="F6" s="1">
+        <v>57</v>
       </c>
       <c r="G6">
-        <f>F6/B6</f>
-        <v>3.125</v>
+        <f t="shared" si="1"/>
+        <v>7.125</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>181</v>
       </c>
-      <c r="C7">
-        <v>15536</v>
+      <c r="C7" s="1">
+        <v>14156</v>
       </c>
       <c r="D7" s="1">
-        <v>2061</v>
+        <v>1727</v>
       </c>
       <c r="E7">
-        <f>D7/B7</f>
-        <v>11.386740331491712</v>
-      </c>
-      <c r="F7">
-        <v>1827</v>
+        <f t="shared" si="0"/>
+        <v>9.5414364640883971</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2297</v>
       </c>
       <c r="G7">
-        <f>F7/B7</f>
-        <v>10.093922651933701</v>
+        <f t="shared" si="1"/>
+        <v>12.69060773480663</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>521</v>
       </c>
-      <c r="C8">
-        <v>143118</v>
+      <c r="C8" s="1">
+        <v>109762</v>
       </c>
       <c r="D8" s="1">
-        <v>6647</v>
+        <v>6096</v>
       </c>
       <c r="E8">
-        <f>D8/B8</f>
-        <v>12.758157389635317</v>
-      </c>
-      <c r="F8">
-        <v>5963</v>
+        <f t="shared" si="0"/>
+        <v>11.700575815738963</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7647</v>
       </c>
       <c r="G8">
-        <f>F8/B8</f>
-        <v>11.445297504798464</v>
+        <f t="shared" si="1"/>
+        <v>14.677543186180422</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>389</v>
       </c>
-      <c r="C9">
-        <v>77572</v>
+      <c r="C9" s="1">
+        <v>61666</v>
       </c>
       <c r="D9" s="1">
-        <v>5797</v>
+        <v>4867</v>
       </c>
       <c r="E9">
-        <f>D9/B9</f>
-        <v>14.902313624678664</v>
-      </c>
-      <c r="F9">
-        <v>5287</v>
+        <f t="shared" si="0"/>
+        <v>12.511568123393316</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5524</v>
       </c>
       <c r="G9">
-        <f>F9/B9</f>
-        <v>13.591259640102828</v>
+        <f t="shared" si="1"/>
+        <v>14.20051413881748</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>137</v>
       </c>
-      <c r="C10">
-        <v>10158</v>
+      <c r="C10" s="1">
+        <v>8672</v>
       </c>
       <c r="D10" s="1">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="E10">
-        <f>D10/B10</f>
-        <v>9.3503649635036492</v>
-      </c>
-      <c r="F10">
-        <v>1199</v>
+        <f t="shared" si="0"/>
+        <v>9.3211678832116789</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1663</v>
       </c>
       <c r="G10">
-        <f>F10/B10</f>
-        <v>8.7518248175182478</v>
+        <f t="shared" si="1"/>
+        <v>12.138686131386862</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>53</v>
       </c>
-      <c r="C11">
-        <v>1424</v>
+      <c r="C11" s="1">
+        <v>1368</v>
       </c>
       <c r="D11" s="1">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E11">
-        <f>D11/B11</f>
-        <v>7.3962264150943398</v>
-      </c>
-      <c r="F11">
-        <v>328</v>
+        <f t="shared" si="0"/>
+        <v>7.5849056603773581</v>
+      </c>
+      <c r="F11" s="1">
+        <v>584</v>
       </c>
       <c r="G11">
-        <f>F11/B11</f>
-        <v>6.1886792452830193</v>
+        <f t="shared" si="1"/>
+        <v>11.018867924528301</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
       </c>
       <c r="E12">
-        <f>D12/B12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>5</v>
+      <c r="F12" s="1">
+        <v>12</v>
       </c>
       <c r="G12">
-        <f>F12/B12</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>259</v>
       </c>
-      <c r="C13">
-        <v>32916</v>
+      <c r="C13" s="1">
+        <v>28906</v>
       </c>
       <c r="D13" s="1">
-        <v>3047</v>
+        <v>2601</v>
       </c>
       <c r="E13">
-        <f>D13/B13</f>
-        <v>11.764478764478765</v>
-      </c>
-      <c r="F13">
-        <v>2701</v>
+        <f t="shared" si="0"/>
+        <v>10.042471042471043</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3374</v>
       </c>
       <c r="G13">
-        <f>F13/B13</f>
-        <v>10.428571428571429</v>
+        <f t="shared" si="1"/>
+        <v>13.027027027027026</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>129</v>
       </c>
-      <c r="C14">
-        <v>7960</v>
+      <c r="C14" s="1">
+        <v>6706</v>
       </c>
       <c r="D14" s="1">
-        <v>1245</v>
+        <v>1118</v>
       </c>
       <c r="E14">
-        <f>D14/B14</f>
-        <v>9.6511627906976738</v>
-      </c>
-      <c r="F14">
-        <v>1069</v>
+        <f t="shared" si="0"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1493</v>
       </c>
       <c r="G14">
-        <f>F14/B14</f>
-        <v>8.2868217054263571</v>
+        <f t="shared" si="1"/>
+        <v>11.573643410852712</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -6028,21 +6028,21 @@
         <v>773</v>
       </c>
       <c r="C15" s="1">
-        <v>292672</v>
+        <v>260658</v>
       </c>
       <c r="D15" s="1">
-        <v>10475</v>
+        <v>10478</v>
       </c>
       <c r="E15">
-        <f>D15/B15</f>
-        <v>13.551099611901682</v>
+        <f t="shared" si="0"/>
+        <v>13.554980595084087</v>
       </c>
       <c r="F15" s="1">
-        <v>9429</v>
+        <v>12355</v>
       </c>
       <c r="G15">
-        <f>F15/B15</f>
-        <v>12.197930142302717</v>
+        <f t="shared" si="1"/>
+        <v>15.983182406209574</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -6050,21 +6050,21 @@
         <v>773</v>
       </c>
       <c r="C16" s="1">
-        <v>291892</v>
+        <v>261114</v>
       </c>
       <c r="D16" s="1">
-        <v>10469</v>
+        <v>10451</v>
       </c>
       <c r="E16">
-        <f>D16/B16</f>
-        <v>13.543337645536869</v>
+        <f t="shared" si="0"/>
+        <v>13.520051746442432</v>
       </c>
       <c r="F16" s="1">
-        <v>9427</v>
+        <v>12460</v>
       </c>
       <c r="G16">
-        <f>F16/B16</f>
-        <v>12.195342820181112</v>
+        <f t="shared" si="1"/>
+        <v>16.119016817593792</v>
       </c>
     </row>
   </sheetData>
